--- a/outputN.xlsx
+++ b/outputN.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Sample Size</t>
   </si>
@@ -22,10 +22,13 @@
     <t>Average Time Per Insertion</t>
   </si>
   <si>
+    <t>Average Time per Search</t>
+  </si>
+  <si>
     <t>Space Complexity</t>
   </si>
   <si>
-    <t>Average</t>
+    <t>Aveage Collisions</t>
   </si>
 </sst>
 </file>
@@ -383,13 +386,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -399,215 +402,611 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>14</v>
+        <v>0.3648202</v>
       </c>
       <c r="D2">
-        <v>137040.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.028</v>
+      </c>
+      <c r="E2">
+        <v>205.2</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2000</v>
+        <v>20</v>
       </c>
       <c r="C3">
-        <v>135.2</v>
+        <v>1.24184</v>
       </c>
       <c r="D3">
-        <v>4844698.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.1281806</v>
+      </c>
+      <c r="E3">
+        <v>224922.8</v>
+      </c>
+      <c r="F3">
+        <v>33.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3000</v>
+        <v>30</v>
       </c>
       <c r="C4">
-        <v>29.6</v>
+        <v>26.9687802</v>
       </c>
       <c r="D4">
-        <v>947476</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>4.1106402</v>
+      </c>
+      <c r="E4">
+        <v>5574071.6</v>
+      </c>
+      <c r="F4">
+        <v>350.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4000</v>
+        <v>40</v>
       </c>
       <c r="C5">
-        <v>391.6</v>
+        <v>156.7671798</v>
       </c>
       <c r="D5">
-        <v>14186293.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>24.09732</v>
+      </c>
+      <c r="E5">
+        <v>95740131.2</v>
+      </c>
+      <c r="F5">
+        <v>2687.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5000</v>
+        <v>50</v>
       </c>
       <c r="C6">
-        <v>238</v>
+        <v>0.4689798</v>
       </c>
       <c r="D6">
-        <v>29991046.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.03887980000000001</v>
+      </c>
+      <c r="E6">
+        <v>885.2</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6000</v>
+        <v>60</v>
       </c>
       <c r="C7">
-        <v>578.4</v>
+        <v>3.2496798</v>
       </c>
       <c r="D7">
-        <v>54578168.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.3676798</v>
+      </c>
+      <c r="E7">
+        <v>33975.2</v>
+      </c>
+      <c r="F7">
+        <v>79.40000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7000</v>
+        <v>70</v>
       </c>
       <c r="C8">
-        <v>127.2</v>
+        <v>31.9651</v>
       </c>
       <c r="D8">
-        <v>140811354.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>3.3416198</v>
+      </c>
+      <c r="E8">
+        <v>2985767.2</v>
+      </c>
+      <c r="F8">
+        <v>802.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8000</v>
+        <v>80</v>
       </c>
       <c r="C9">
-        <v>886</v>
+        <v>424.7902002</v>
       </c>
       <c r="D9">
-        <v>117605890.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>49.93008</v>
+      </c>
+      <c r="E9">
+        <v>15713565.6</v>
+      </c>
+      <c r="F9">
+        <v>5979.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9000</v>
+        <v>90</v>
       </c>
       <c r="C10">
-        <v>188.6</v>
+        <v>0.4872398</v>
       </c>
       <c r="D10">
-        <v>153683648.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.05026</v>
+      </c>
+      <c r="E10">
+        <v>6463.2</v>
+      </c>
+      <c r="F10">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="C11">
-        <v>784.4</v>
+        <v>4.91382</v>
       </c>
       <c r="D11">
-        <v>10247888.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.5112</v>
+      </c>
+      <c r="E11">
+        <v>113115.2</v>
+      </c>
+      <c r="F11">
+        <v>128.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20000</v>
+        <v>200</v>
       </c>
       <c r="C12">
-        <v>100.2</v>
+        <v>66.6703004</v>
       </c>
       <c r="D12">
-        <v>167877412</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>9.0754</v>
+      </c>
+      <c r="E12">
+        <v>4765798</v>
+      </c>
+      <c r="F12">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30000</v>
+        <v>300</v>
       </c>
       <c r="C13">
-        <v>124</v>
+        <v>0.7784398</v>
       </c>
       <c r="D13">
-        <v>178226465.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.0607002</v>
+      </c>
+      <c r="E13">
+        <v>10509.2</v>
+      </c>
+      <c r="F13">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>40000</v>
+        <v>400</v>
       </c>
       <c r="C14">
-        <v>115.8</v>
+        <v>7.49936</v>
       </c>
       <c r="D14">
-        <v>199302968</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.6909396</v>
+      </c>
+      <c r="E14">
+        <v>299500</v>
+      </c>
+      <c r="F14">
+        <v>171.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>50000</v>
+        <v>500</v>
       </c>
       <c r="C15">
-        <v>117.6</v>
+        <v>65.6110602</v>
       </c>
       <c r="D15">
-        <v>1594178.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>8.51526</v>
+      </c>
+      <c r="E15">
+        <v>11496212.4</v>
+      </c>
+      <c r="F15">
+        <v>1472.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>3</v>
+      <c r="B16">
+        <v>600</v>
       </c>
       <c r="C16">
-        <v>273.6142857142857</v>
+        <v>1.1228002</v>
       </c>
       <c r="D16">
-        <v>76716752.0857143</v>
+        <v>0.07480000000000001</v>
+      </c>
+      <c r="E16">
+        <v>24379.2</v>
+      </c>
+      <c r="F16">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>700</v>
+      </c>
+      <c r="C17">
+        <v>6.2055404</v>
+      </c>
+      <c r="D17">
+        <v>0.7114198</v>
+      </c>
+      <c r="E17">
+        <v>534023.6</v>
+      </c>
+      <c r="F17">
+        <v>205.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>800</v>
+      </c>
+      <c r="C18">
+        <v>112.3586602</v>
+      </c>
+      <c r="D18">
+        <v>19.86982</v>
+      </c>
+      <c r="E18">
+        <v>16488320.8</v>
+      </c>
+      <c r="F18">
+        <v>2206.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>900</v>
+      </c>
+      <c r="C19">
+        <v>0.6260804</v>
+      </c>
+      <c r="D19">
+        <v>0.0582994</v>
+      </c>
+      <c r="E19">
+        <v>44301.6</v>
+      </c>
+      <c r="F19">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>1000</v>
+      </c>
+      <c r="C20">
+        <v>8.308000400000001</v>
+      </c>
+      <c r="D20">
+        <v>0.9611598</v>
+      </c>
+      <c r="E20">
+        <v>901992.4</v>
+      </c>
+      <c r="F20">
+        <v>205.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>2000</v>
+      </c>
+      <c r="C21">
+        <v>94.52177979999999</v>
+      </c>
+      <c r="D21">
+        <v>13.5730198</v>
+      </c>
+      <c r="E21">
+        <v>25030143.2</v>
+      </c>
+      <c r="F21">
+        <v>2041.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>3000</v>
+      </c>
+      <c r="C22">
+        <v>0.8942192</v>
+      </c>
+      <c r="D22">
+        <v>0.0731808</v>
+      </c>
+      <c r="E22">
+        <v>60329.2</v>
+      </c>
+      <c r="F22">
+        <v>26.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>4000</v>
+      </c>
+      <c r="C23">
+        <v>10.53938</v>
+      </c>
+      <c r="D23">
+        <v>1.49676</v>
+      </c>
+      <c r="E23">
+        <v>1351451.2</v>
+      </c>
+      <c r="F23">
+        <v>236.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>5000</v>
+      </c>
+      <c r="C24">
+        <v>97.59408000000001</v>
+      </c>
+      <c r="D24">
+        <v>13.7776798</v>
+      </c>
+      <c r="E24">
+        <v>35394453.6</v>
+      </c>
+      <c r="F24">
+        <v>2347.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>6000</v>
+      </c>
+      <c r="C25">
+        <v>0.8513198000000001</v>
+      </c>
+      <c r="D25">
+        <v>0.0798</v>
+      </c>
+      <c r="E25">
+        <v>128555.2</v>
+      </c>
+      <c r="F25">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>7000</v>
+      </c>
+      <c r="C26">
+        <v>12.2444998</v>
+      </c>
+      <c r="D26">
+        <v>1.32362</v>
+      </c>
+      <c r="E26">
+        <v>2019844.4</v>
+      </c>
+      <c r="F26">
+        <v>295.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>8000</v>
+      </c>
+      <c r="C27">
+        <v>122.4830598</v>
+      </c>
+      <c r="D27">
+        <v>17.08296</v>
+      </c>
+      <c r="E27">
+        <v>49870709.6</v>
+      </c>
+      <c r="F27">
+        <v>2470.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>9000</v>
+      </c>
+      <c r="C28">
+        <v>1.0347</v>
+      </c>
+      <c r="D28">
+        <v>0.0981798</v>
+      </c>
+      <c r="E28">
+        <v>175227.2</v>
+      </c>
+      <c r="F28">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>10000</v>
+      </c>
+      <c r="C29">
+        <v>16.3547604</v>
+      </c>
+      <c r="D29">
+        <v>2.0427602</v>
+      </c>
+      <c r="E29">
+        <v>3030559.6</v>
+      </c>
+      <c r="F29">
+        <v>329.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>20000</v>
+      </c>
+      <c r="C30">
+        <v>131.6592802</v>
+      </c>
+      <c r="D30">
+        <v>21.86968</v>
+      </c>
+      <c r="E30">
+        <v>68805672.40000001</v>
+      </c>
+      <c r="F30">
+        <v>2773.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>2756.896551724138</v>
+      </c>
+      <c r="C31">
+        <v>0.3980234566369595</v>
+      </c>
+      <c r="D31">
+        <v>0.05303556156280241</v>
+      </c>
+      <c r="E31">
+        <v>101091.7768996169</v>
+      </c>
+      <c r="F31">
+        <v>904.1793103448275</v>
       </c>
     </row>
   </sheetData>
